--- a/biology/Médecine/Emerging_Infectious_Diseases/Emerging_Infectious_Diseases.xlsx
+++ b/biology/Médecine/Emerging_Infectious_Diseases/Emerging_Infectious_Diseases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Emerging Infectious Diseases est une revue scientifique médicale publié en anglais par les Centers for Disease Control and Prevention (CDC), au sujet des maladies émergentes[1]. Il est dans le domaine public et est publié mensuellement.
+Emerging Infectious Diseases est une revue scientifique médicale publié en anglais par les Centers for Disease Control and Prevention (CDC), au sujet des maladies émergentes. Il est dans le domaine public et est publié mensuellement.
 </t>
         </is>
       </c>
